--- a/data/Malicious Routing National Dataset.xlsx
+++ b/data/Malicious Routing National Dataset.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8363B1-DCBA-4911-AA25-52704E8CB692}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157ED4B4-022A-4A3A-BCF4-CB87963127B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="437">
   <si>
     <t>AD</t>
   </si>
@@ -1307,6 +1316,30 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>BGP Hijacks b</t>
+  </si>
+  <si>
+    <t>BGP Hijacks a</t>
   </si>
 </sst>
 </file>
@@ -1851,13 +1884,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3F186C1-4BC8-4073-9AAE-9C4BD46845C3}" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576" xr:uid="{07CFB2B1-7468-43FC-A356-3280593350B7}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3F186C1-4BC8-4073-9AAE-9C4BD46845C3}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0">
+  <autoFilter ref="A1:F1048576" xr:uid="{07CFB2B1-7468-43FC-A356-3280593350B7}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1C986861-56D1-4778-9305-7A4F9495C70B}" name="Code"/>
     <tableColumn id="2" xr3:uid="{21B3926C-46C0-4B40-9817-7EF772684984}" name="Country"/>
     <tableColumn id="3" xr3:uid="{314CC48B-B6D0-415C-B007-5793AF1A3CCD}" name="Mirai-like Hits"/>
-    <tableColumn id="4" xr3:uid="{C2D494FE-6D34-4AA5-82F6-47F4380202CE}" name="BGP Hijacks"/>
+    <tableColumn id="5" xr3:uid="{D18A33F6-103F-4984-B880-BE5298C5D1AA}" name="BGP Hijacks a"/>
+    <tableColumn id="9" xr3:uid="{E75306AD-075B-4443-ABBF-91E5D673FF39}" name="BGP Hijacks b"/>
+    <tableColumn id="10" xr3:uid="{E7B5D921-8708-4C88-85C2-2739B88949EC}" name="BGP Hijacks"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2160,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2413B972-2BB9-41F4-8DD9-22C30F350830}">
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,10 +2206,10 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>399</v>
       </c>
@@ -2185,10 +2220,16 @@
         <v>400</v>
       </c>
       <c r="D1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2198,11 +2239,19 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>IFERROR(VLOOKUP(A2,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>D2+E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2212,11 +2261,19 @@
       <c r="C3">
         <v>428</v>
       </c>
-      <c r="D3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>IFERROR(VLOOKUP(A3,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3+E3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2227,10 +2284,18 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A4,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2240,11 +2305,19 @@
       <c r="C5">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>IFERROR(VLOOKUP(A5,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2255,10 +2328,18 @@
         <v>75</v>
       </c>
       <c r="D6">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A6,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2268,11 +2349,19 @@
       <c r="C7">
         <v>168</v>
       </c>
-      <c r="D7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>IFERROR(VLOOKUP(A7,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2283,10 +2372,18 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A8,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2297,10 +2394,18 @@
         <v>2157</v>
       </c>
       <c r="D9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A9,Sheet1!A:B,2,0), )</f>
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>374</v>
       </c>
@@ -2311,10 +2416,18 @@
         <v>403</v>
       </c>
       <c r="D10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A10,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2324,11 +2437,19 @@
       <c r="C11">
         <v>237</v>
       </c>
-      <c r="D11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>IFERROR(VLOOKUP(A11,Sheet1!A:B,2,0), )</f>
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2338,11 +2459,19 @@
       <c r="C12">
         <v>561</v>
       </c>
-      <c r="D12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>IFERROR(VLOOKUP(A12,Sheet1!A:B,2,0), )</f>
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2352,11 +2481,19 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>IFERROR(VLOOKUP(A13,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2366,11 +2503,19 @@
       <c r="C14">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>IFERROR(VLOOKUP(A14,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2380,11 +2525,19 @@
       <c r="C15">
         <v>118</v>
       </c>
-      <c r="D15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>IFERROR(VLOOKUP(A15,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2394,11 +2547,19 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>IFERROR(VLOOKUP(A16,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2408,11 +2569,19 @@
       <c r="C17">
         <v>243</v>
       </c>
-      <c r="D17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>IFERROR(VLOOKUP(A17,Sheet1!A:B,2,0), )</f>
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2422,11 +2591,19 @@
       <c r="C18">
         <v>211</v>
       </c>
-      <c r="D18" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>IFERROR(VLOOKUP(A18,Sheet1!A:B,2,0), )</f>
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2437,10 +2614,18 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A19,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2451,10 +2636,18 @@
         <v>1786</v>
       </c>
       <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A20,Sheet1!A:B,2,0), )</f>
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2464,11 +2657,19 @@
       <c r="C21">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>IFERROR(VLOOKUP(A21,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2478,11 +2679,19 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>IFERROR(VLOOKUP(A22,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2493,10 +2702,18 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A23,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2506,11 +2723,19 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>IFERROR(VLOOKUP(A24,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2520,11 +2745,19 @@
       <c r="C25">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>IFERROR(VLOOKUP(A25,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2535,10 +2768,18 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A26,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2548,11 +2789,19 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>IFERROR(VLOOKUP(A27,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2562,11 +2811,19 @@
       <c r="C28">
         <v>9028</v>
       </c>
-      <c r="D28" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>IFERROR(VLOOKUP(A28,Sheet1!A:B,2,0), )</f>
+        <v>107</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2577,10 +2834,18 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A29,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2591,10 +2856,18 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A30,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2605,10 +2878,18 @@
         <v>63</v>
       </c>
       <c r="D31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A31,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2618,11 +2899,19 @@
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>IFERROR(VLOOKUP(A32,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2632,11 +2921,19 @@
       <c r="C33">
         <v>1131</v>
       </c>
-      <c r="D33" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>IFERROR(VLOOKUP(A33,Sheet1!A:B,2,0), )</f>
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>375</v>
       </c>
@@ -2647,10 +2944,18 @@
         <v>403</v>
       </c>
       <c r="D34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A34,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -2661,10 +2966,18 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A35,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>89</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2674,11 +2987,19 @@
       <c r="C36">
         <v>128</v>
       </c>
-      <c r="D36" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>IFERROR(VLOOKUP(A36,Sheet1!A:B,2,0), )</f>
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2689,10 +3010,18 @@
         <v>18</v>
       </c>
       <c r="D37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A37,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2703,10 +3032,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A38,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2716,11 +3053,19 @@
       <c r="C39">
         <v>802</v>
       </c>
-      <c r="D39" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>IFERROR(VLOOKUP(A39,Sheet1!A:B,2,0), )</f>
+        <v>88</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2731,10 +3076,18 @@
         <v>7</v>
       </c>
       <c r="D40">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A40,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>28</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2744,11 +3097,19 @@
       <c r="C41">
         <v>50850</v>
       </c>
-      <c r="D41" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>IFERROR(VLOOKUP(A41,Sheet1!A:B,2,0), )</f>
+        <v>84</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2758,11 +3119,19 @@
       <c r="C42">
         <v>757</v>
       </c>
-      <c r="D42" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>IFERROR(VLOOKUP(A42,Sheet1!A:B,2,0), )</f>
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -2772,11 +3141,19 @@
       <c r="C43">
         <v>141</v>
       </c>
-      <c r="D43" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>IFERROR(VLOOKUP(A43,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>376</v>
       </c>
@@ -2787,10 +3164,18 @@
         <v>403</v>
       </c>
       <c r="D44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A44,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2800,11 +3185,19 @@
       <c r="C45">
         <v>12</v>
       </c>
-      <c r="D45" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f>IFERROR(VLOOKUP(A45,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2815,10 +3208,18 @@
         <v>157</v>
       </c>
       <c r="D46">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A46,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2828,11 +3229,19 @@
       <c r="C47">
         <v>527</v>
       </c>
-      <c r="D47" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f>IFERROR(VLOOKUP(A47,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -2842,11 +3251,19 @@
       <c r="C48">
         <v>1353</v>
       </c>
-      <c r="D48" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f>IFERROR(VLOOKUP(A48,Sheet1!A:B,2,0), )</f>
+        <v>65</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -2857,10 +3274,18 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A49,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -2870,11 +3295,19 @@
       <c r="C50">
         <v>260</v>
       </c>
-      <c r="D50" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f>IFERROR(VLOOKUP(A50,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2884,11 +3317,19 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f>IFERROR(VLOOKUP(A51,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2899,10 +3340,18 @@
         <v>183</v>
       </c>
       <c r="D52">
+        <f>IFERROR(VLOOKUP(A52,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -2913,10 +3362,18 @@
         <v>13</v>
       </c>
       <c r="D53">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A53,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -2926,11 +3383,19 @@
       <c r="C54">
         <v>612</v>
       </c>
-      <c r="D54" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f>IFERROR(VLOOKUP(A54,Sheet1!A:B,2,0), )</f>
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -2941,10 +3406,18 @@
         <v>23</v>
       </c>
       <c r="D55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A55,Sheet1!A:B,2,0), )</f>
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2955,10 +3428,18 @@
         <v>11080</v>
       </c>
       <c r="D56">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A56,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -2968,11 +3449,19 @@
       <c r="C57">
         <v>1454</v>
       </c>
-      <c r="D57" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f>IFERROR(VLOOKUP(A57,Sheet1!A:B,2,0), )</f>
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -2983,10 +3472,18 @@
         <v>77</v>
       </c>
       <c r="D58">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A58,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>105</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -2996,11 +3493,19 @@
       <c r="C59">
         <v>113</v>
       </c>
-      <c r="D59" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f>IFERROR(VLOOKUP(A59,Sheet1!A:B,2,0), )</f>
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -3011,10 +3516,18 @@
         <v>15</v>
       </c>
       <c r="D60">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A60,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>26</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>377</v>
       </c>
@@ -3025,10 +3538,18 @@
         <v>403</v>
       </c>
       <c r="D61">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A61,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -3038,11 +3559,19 @@
       <c r="C62">
         <v>1235</v>
       </c>
-      <c r="D62" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f>IFERROR(VLOOKUP(A62,Sheet1!A:B,2,0), )</f>
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -3053,10 +3582,18 @@
         <v>52</v>
       </c>
       <c r="D63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A63,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -3066,11 +3603,19 @@
       <c r="C64">
         <v>1481</v>
       </c>
-      <c r="D64" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f>IFERROR(VLOOKUP(A64,Sheet1!A:B,2,0), )</f>
+        <v>98</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -3081,10 +3626,18 @@
         <v>3</v>
       </c>
       <c r="D65">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A65,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -3095,10 +3648,18 @@
         <v>152</v>
       </c>
       <c r="D66">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A66,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -3108,11 +3669,19 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f>IFERROR(VLOOKUP(A67,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="1">D67+E67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -3123,10 +3692,18 @@
         <v>15</v>
       </c>
       <c r="D68">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A68,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>21</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -3136,11 +3713,19 @@
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f>IFERROR(VLOOKUP(A69,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -3150,11 +3735,19 @@
       <c r="C70">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f>IFERROR(VLOOKUP(A70,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -3164,11 +3757,19 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f>IFERROR(VLOOKUP(A71,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -3179,10 +3780,18 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A72,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -3192,11 +3801,19 @@
       <c r="C73">
         <v>1604</v>
       </c>
-      <c r="D73" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f>IFERROR(VLOOKUP(A73,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -3207,10 +3824,18 @@
         <v>403</v>
       </c>
       <c r="D74">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A74,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -3220,11 +3845,19 @@
       <c r="C75">
         <v>24</v>
       </c>
-      <c r="D75" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f>IFERROR(VLOOKUP(A75,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -3235,10 +3868,18 @@
         <v>15</v>
       </c>
       <c r="D76">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A76,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -3249,10 +3890,18 @@
         <v>69</v>
       </c>
       <c r="D77">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A77,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -3262,11 +3911,19 @@
       <c r="C78">
         <v>4021</v>
       </c>
-      <c r="D78" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f>IFERROR(VLOOKUP(A78,Sheet1!A:B,2,0), )</f>
+        <v>49</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -3276,11 +3933,19 @@
       <c r="C79">
         <v>42</v>
       </c>
-      <c r="D79" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f>IFERROR(VLOOKUP(A79,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -3290,11 +3955,19 @@
       <c r="C80">
         <v>124</v>
       </c>
-      <c r="D80" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f>IFERROR(VLOOKUP(A80,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -3305,10 +3978,18 @@
         <v>6</v>
       </c>
       <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A81,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -3318,11 +3999,19 @@
       <c r="C82">
         <v>609</v>
       </c>
-      <c r="D82" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <f>IFERROR(VLOOKUP(A82,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -3332,11 +4021,19 @@
       <c r="C83">
         <v>3023</v>
       </c>
-      <c r="D83" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <f>IFERROR(VLOOKUP(A83,Sheet1!A:B,2,0), )</f>
+        <v>12</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -3346,11 +4043,19 @@
       <c r="C84">
         <v>118</v>
       </c>
-      <c r="D84" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f>IFERROR(VLOOKUP(A84,Sheet1!A:B,2,0), )</f>
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -3361,10 +4066,18 @@
         <v>470</v>
       </c>
       <c r="D85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A85,Sheet1!A:B,2,0), )</f>
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -3374,11 +4087,19 @@
       <c r="C86">
         <v>3218</v>
       </c>
-      <c r="D86" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f>IFERROR(VLOOKUP(A86,Sheet1!A:B,2,0), )</f>
+        <v>96</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>379</v>
       </c>
@@ -3389,10 +4110,18 @@
         <v>403</v>
       </c>
       <c r="D87">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A87,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -3403,10 +4132,18 @@
         <v>45</v>
       </c>
       <c r="D88">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A88,Sheet1!A:B,2,0), )</f>
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>166</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>162</v>
       </c>
@@ -3417,10 +4154,18 @@
         <v>729</v>
       </c>
       <c r="D89">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A89,Sheet1!A:B,2,0), )</f>
+        <v>48</v>
+      </c>
+      <c r="E89">
+        <v>29</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -3430,11 +4175,19 @@
       <c r="C90">
         <v>10</v>
       </c>
-      <c r="D90" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f>IFERROR(VLOOKUP(A90,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -3444,11 +4197,19 @@
       <c r="C91">
         <v>2880</v>
       </c>
-      <c r="D91" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <f>IFERROR(VLOOKUP(A91,Sheet1!A:B,2,0), )</f>
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>380</v>
       </c>
@@ -3459,10 +4220,18 @@
         <v>403</v>
       </c>
       <c r="D92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A92,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>168</v>
       </c>
@@ -3472,11 +4241,19 @@
       <c r="C93">
         <v>28</v>
       </c>
-      <c r="D93" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <f>IFERROR(VLOOKUP(A93,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -3487,10 +4264,18 @@
         <v>148</v>
       </c>
       <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A94,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -3500,11 +4285,19 @@
       <c r="C95">
         <v>9815</v>
       </c>
-      <c r="D95" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f>IFERROR(VLOOKUP(A95,Sheet1!A:B,2,0), )</f>
+        <v>16</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -3515,10 +4308,18 @@
         <v>26</v>
       </c>
       <c r="D96">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A96,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>33</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -3529,10 +4330,18 @@
         <v>13</v>
       </c>
       <c r="D97">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A97,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -3542,11 +4351,19 @@
       <c r="C98">
         <v>69</v>
       </c>
-      <c r="D98" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f>IFERROR(VLOOKUP(A98,Sheet1!A:B,2,0), )</f>
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>381</v>
       </c>
@@ -3557,10 +4374,18 @@
         <v>403</v>
       </c>
       <c r="D99">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A99,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>107</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>382</v>
       </c>
@@ -3571,10 +4396,18 @@
         <v>403</v>
       </c>
       <c r="D100">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A100,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>45</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>383</v>
       </c>
@@ -3585,10 +4418,18 @@
         <v>403</v>
       </c>
       <c r="D101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A101,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>180</v>
       </c>
@@ -3598,11 +4439,19 @@
       <c r="C102">
         <v>6397</v>
       </c>
-      <c r="D102" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f>IFERROR(VLOOKUP(A102,Sheet1!A:B,2,0), )</f>
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -3613,10 +4462,18 @@
         <v>199</v>
       </c>
       <c r="D103">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A103,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>15</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -3626,11 +4483,19 @@
       <c r="C104">
         <v>5</v>
       </c>
-      <c r="D104" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <f>IFERROR(VLOOKUP(A104,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>186</v>
       </c>
@@ -3640,11 +4505,19 @@
       <c r="C105">
         <v>241</v>
       </c>
-      <c r="D105" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <f>IFERROR(VLOOKUP(A105,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -3654,11 +4527,19 @@
       <c r="C106">
         <v>10</v>
       </c>
-      <c r="D106" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <f>IFERROR(VLOOKUP(A106,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>190</v>
       </c>
@@ -3669,10 +4550,18 @@
         <v>12</v>
       </c>
       <c r="D107">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A107,Sheet1!A:B,2,0), )</f>
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -3683,10 +4572,18 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A108,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>194</v>
       </c>
@@ -3697,10 +4594,18 @@
         <v>72</v>
       </c>
       <c r="D109">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A109,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>196</v>
       </c>
@@ -3711,10 +4616,18 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A110,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>17</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>384</v>
       </c>
@@ -3725,10 +4638,18 @@
         <v>403</v>
       </c>
       <c r="D111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A111,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>198</v>
       </c>
@@ -3739,10 +4660,18 @@
         <v>84</v>
       </c>
       <c r="D112">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A112,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -3752,11 +4681,19 @@
       <c r="C113">
         <v>17</v>
       </c>
-      <c r="D113" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <f>IFERROR(VLOOKUP(A113,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -3766,11 +4703,19 @@
       <c r="C114">
         <v>168</v>
       </c>
-      <c r="D114" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <f>IFERROR(VLOOKUP(A114,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -3780,11 +4725,19 @@
       <c r="C115">
         <v>2</v>
       </c>
-      <c r="D115" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <f>IFERROR(VLOOKUP(A115,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -3795,10 +4748,18 @@
         <v>1664</v>
       </c>
       <c r="D116">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A116,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>159</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -3808,11 +4769,19 @@
       <c r="C117">
         <v>96</v>
       </c>
-      <c r="D117" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <f>IFERROR(VLOOKUP(A117,Sheet1!A:B,2,0), )</f>
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>210</v>
       </c>
@@ -3822,11 +4791,19 @@
       <c r="C118">
         <v>42</v>
       </c>
-      <c r="D118" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <f>IFERROR(VLOOKUP(A118,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>212</v>
       </c>
@@ -3837,10 +4814,18 @@
         <v>4</v>
       </c>
       <c r="D119">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A119,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>98</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -3850,11 +4835,19 @@
       <c r="C120">
         <v>4</v>
       </c>
-      <c r="D120" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <f>IFERROR(VLOOKUP(A120,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>216</v>
       </c>
@@ -3864,11 +4857,19 @@
       <c r="C121">
         <v>84</v>
       </c>
-      <c r="D121" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <f>IFERROR(VLOOKUP(A121,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>218</v>
       </c>
@@ -3878,11 +4879,19 @@
       <c r="C122">
         <v>2</v>
       </c>
-      <c r="D122" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <f>IFERROR(VLOOKUP(A122,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -3892,11 +4901,19 @@
       <c r="C123">
         <v>18</v>
       </c>
-      <c r="D123" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <f>IFERROR(VLOOKUP(A123,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -3906,11 +4923,19 @@
       <c r="C124">
         <v>97</v>
       </c>
-      <c r="D124" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <f>IFERROR(VLOOKUP(A124,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -3920,11 +4945,19 @@
       <c r="C125">
         <v>1</v>
       </c>
-      <c r="D125" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <f>IFERROR(VLOOKUP(A125,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>226</v>
       </c>
@@ -3934,11 +4967,19 @@
       <c r="C126">
         <v>1</v>
       </c>
-      <c r="D126" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <f>IFERROR(VLOOKUP(A126,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>228</v>
       </c>
@@ -3948,11 +4989,19 @@
       <c r="C127">
         <v>1</v>
       </c>
-      <c r="D127" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <f>IFERROR(VLOOKUP(A127,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>230</v>
       </c>
@@ -3963,10 +5012,18 @@
         <v>30</v>
       </c>
       <c r="D128">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A128,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>63</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -3977,10 +5034,18 @@
         <v>139</v>
       </c>
       <c r="D129">
+        <f>IFERROR(VLOOKUP(A129,Sheet1!A:B,2,0), )</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>234</v>
       </c>
@@ -3991,10 +5056,18 @@
         <v>22</v>
       </c>
       <c r="D130">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A130,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>42</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>236</v>
       </c>
@@ -4005,10 +5078,18 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A131,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>41</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="2">D131+E131</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>238</v>
       </c>
@@ -4018,11 +5099,19 @@
       <c r="C132">
         <v>4666</v>
       </c>
-      <c r="D132" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <f>IFERROR(VLOOKUP(A132,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>240</v>
       </c>
@@ -4032,11 +5121,19 @@
       <c r="C133">
         <v>1264</v>
       </c>
-      <c r="D133" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <f>IFERROR(VLOOKUP(A133,Sheet1!A:B,2,0), )</f>
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>242</v>
       </c>
@@ -4047,10 +5144,18 @@
         <v>20</v>
       </c>
       <c r="D134">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A134,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>62</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>244</v>
       </c>
@@ -4061,10 +5166,18 @@
         <v>13</v>
       </c>
       <c r="D135">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A135,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>15</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>246</v>
       </c>
@@ -4074,11 +5187,19 @@
       <c r="C136">
         <v>2</v>
       </c>
-      <c r="D136" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <f>IFERROR(VLOOKUP(A136,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>248</v>
       </c>
@@ -4089,10 +5210,18 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A137,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>94</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>385</v>
       </c>
@@ -4103,10 +5232,18 @@
         <v>403</v>
       </c>
       <c r="D138">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A138,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>250</v>
       </c>
@@ -4116,11 +5253,19 @@
       <c r="C139">
         <v>814</v>
       </c>
-      <c r="D139" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <f>IFERROR(VLOOKUP(A139,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>252</v>
       </c>
@@ -4130,11 +5275,19 @@
       <c r="C140">
         <v>7</v>
       </c>
-      <c r="D140" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <f>IFERROR(VLOOKUP(A140,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>254</v>
       </c>
@@ -4144,11 +5297,19 @@
       <c r="C141">
         <v>654</v>
       </c>
-      <c r="D141" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <f>IFERROR(VLOOKUP(A141,Sheet1!A:B,2,0), )</f>
+        <v>60</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>256</v>
       </c>
@@ -4158,11 +5319,19 @@
       <c r="C142">
         <v>417</v>
       </c>
-      <c r="D142" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <f>IFERROR(VLOOKUP(A142,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -4172,11 +5341,19 @@
       <c r="C143">
         <v>50</v>
       </c>
-      <c r="D143" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <f>IFERROR(VLOOKUP(A143,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>386</v>
       </c>
@@ -4187,10 +5364,18 @@
         <v>403</v>
       </c>
       <c r="D144">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A144,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>387</v>
       </c>
@@ -4201,10 +5386,18 @@
         <v>403</v>
       </c>
       <c r="D145">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A145,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>260</v>
       </c>
@@ -4214,11 +5407,19 @@
       <c r="C146">
         <v>125</v>
       </c>
-      <c r="D146" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <f>IFERROR(VLOOKUP(A146,Sheet1!A:B,2,0), )</f>
+        <v>7</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>262</v>
       </c>
@@ -4228,11 +5429,19 @@
       <c r="C147">
         <v>87</v>
       </c>
-      <c r="D147" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <f>IFERROR(VLOOKUP(A147,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>264</v>
       </c>
@@ -4243,10 +5452,18 @@
         <v>208</v>
       </c>
       <c r="D148">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A148,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>266</v>
       </c>
@@ -4257,10 +5474,18 @@
         <v>50</v>
       </c>
       <c r="D149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A149,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>268</v>
       </c>
@@ -4271,10 +5496,18 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A150,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>11</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>270</v>
       </c>
@@ -4285,10 +5518,18 @@
         <v>2</v>
       </c>
       <c r="D151">
+        <f>IFERROR(VLOOKUP(A151,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>272</v>
       </c>
@@ -4298,11 +5539,19 @@
       <c r="C152">
         <v>256</v>
       </c>
-      <c r="D152" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <f>IFERROR(VLOOKUP(A152,Sheet1!A:B,2,0), )</f>
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>274</v>
       </c>
@@ -4312,11 +5561,19 @@
       <c r="C153">
         <v>611</v>
       </c>
-      <c r="D153" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <f>IFERROR(VLOOKUP(A153,Sheet1!A:B,2,0), )</f>
+        <v>7</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>276</v>
       </c>
@@ -4326,11 +5583,19 @@
       <c r="C154">
         <v>1562</v>
       </c>
-      <c r="D154" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <f>IFERROR(VLOOKUP(A154,Sheet1!A:B,2,0), )</f>
+        <v>27</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>388</v>
       </c>
@@ -4341,10 +5606,18 @@
         <v>403</v>
       </c>
       <c r="D155">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A155,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>6</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>278</v>
       </c>
@@ -4354,11 +5627,19 @@
       <c r="C156">
         <v>75</v>
       </c>
-      <c r="D156" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <f>IFERROR(VLOOKUP(A156,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>280</v>
       </c>
@@ -4369,10 +5650,18 @@
         <v>43</v>
       </c>
       <c r="D157">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A157,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>18</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>282</v>
       </c>
@@ -4382,11 +5671,19 @@
       <c r="C158">
         <v>340</v>
       </c>
-      <c r="D158" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <f>IFERROR(VLOOKUP(A158,Sheet1!A:B,2,0), )</f>
+        <v>6</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>284</v>
       </c>
@@ -4397,10 +5694,18 @@
         <v>80</v>
       </c>
       <c r="D159">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A159,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>24</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>286</v>
       </c>
@@ -4410,11 +5715,19 @@
       <c r="C160">
         <v>135</v>
       </c>
-      <c r="D160" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <f>IFERROR(VLOOKUP(A160,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -4424,11 +5737,19 @@
       <c r="C161">
         <v>4</v>
       </c>
-      <c r="D161" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <f>IFERROR(VLOOKUP(A161,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>290</v>
       </c>
@@ -4438,11 +5759,19 @@
       <c r="C162">
         <v>1649</v>
       </c>
-      <c r="D162" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <f>IFERROR(VLOOKUP(A162,Sheet1!A:B,2,0), )</f>
+        <v>11</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>292</v>
       </c>
@@ -4452,11 +5781,19 @@
       <c r="C163">
         <v>267</v>
       </c>
-      <c r="D163" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <f>IFERROR(VLOOKUP(A163,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -4466,11 +5803,19 @@
       <c r="C164">
         <v>29494</v>
       </c>
-      <c r="D164" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <f>IFERROR(VLOOKUP(A164,Sheet1!A:B,2,0), )</f>
+        <v>45</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>296</v>
       </c>
@@ -4481,10 +5826,18 @@
         <v>207</v>
       </c>
       <c r="D165">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A165,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>13</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>389</v>
       </c>
@@ -4495,10 +5848,18 @@
         <v>403</v>
       </c>
       <c r="D166">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A166,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>104</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>298</v>
       </c>
@@ -4509,10 +5870,18 @@
         <v>3</v>
       </c>
       <c r="D167">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A167,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>60</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>300</v>
       </c>
@@ -4523,10 +5892,18 @@
         <v>8</v>
       </c>
       <c r="D168">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A168,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>40</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>302</v>
       </c>
@@ -4536,11 +5913,19 @@
       <c r="C169">
         <v>2908</v>
       </c>
-      <c r="D169" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <f>IFERROR(VLOOKUP(A169,Sheet1!A:B,2,0), )</f>
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>304</v>
       </c>
@@ -4550,11 +5935,19 @@
       <c r="C170">
         <v>1358</v>
       </c>
-      <c r="D170" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <f>IFERROR(VLOOKUP(A170,Sheet1!A:B,2,0), )</f>
+        <v>14</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>390</v>
       </c>
@@ -4565,10 +5958,18 @@
         <v>403</v>
       </c>
       <c r="D171">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A171,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>306</v>
       </c>
@@ -4578,11 +5979,19 @@
       <c r="C172">
         <v>80</v>
       </c>
-      <c r="D172" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <f>IFERROR(VLOOKUP(A172,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>308</v>
       </c>
@@ -4592,11 +6001,19 @@
       <c r="C173">
         <v>90</v>
       </c>
-      <c r="D173" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <f>IFERROR(VLOOKUP(A173,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>310</v>
       </c>
@@ -4607,10 +6024,18 @@
         <v>2</v>
       </c>
       <c r="D174">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A174,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>7</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>312</v>
       </c>
@@ -4621,10 +6046,18 @@
         <v>4</v>
       </c>
       <c r="D175">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A175,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>15</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>314</v>
       </c>
@@ -4634,11 +6067,19 @@
       <c r="C176">
         <v>37</v>
       </c>
-      <c r="D176" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <f>IFERROR(VLOOKUP(A176,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>316</v>
       </c>
@@ -4648,11 +6089,19 @@
       <c r="C177">
         <v>5</v>
       </c>
-      <c r="D177" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <f>IFERROR(VLOOKUP(A177,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>318</v>
       </c>
@@ -4663,10 +6112,18 @@
         <v>31</v>
       </c>
       <c r="D178">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A178,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>45</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>320</v>
       </c>
@@ -4676,11 +6133,19 @@
       <c r="C179">
         <v>1</v>
       </c>
-      <c r="D179" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <f>IFERROR(VLOOKUP(A179,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>322</v>
       </c>
@@ -4691,10 +6156,18 @@
         <v>15</v>
       </c>
       <c r="D180">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A180,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>11</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>324</v>
       </c>
@@ -4704,11 +6177,19 @@
       <c r="C181">
         <v>2</v>
       </c>
-      <c r="D181" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <f>IFERROR(VLOOKUP(A181,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>326</v>
       </c>
@@ -4719,10 +6200,18 @@
         <v>6</v>
       </c>
       <c r="D182">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A182,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>71</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>328</v>
       </c>
@@ -4733,10 +6222,18 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A183,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>391</v>
       </c>
@@ -4747,10 +6244,18 @@
         <v>403</v>
       </c>
       <c r="D184">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A184,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>17</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>330</v>
       </c>
@@ -4760,11 +6265,19 @@
       <c r="C185">
         <v>5</v>
       </c>
-      <c r="D185" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <f>IFERROR(VLOOKUP(A185,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>332</v>
       </c>
@@ -4774,11 +6287,19 @@
       <c r="C186">
         <v>1769</v>
       </c>
-      <c r="D186" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <f>IFERROR(VLOOKUP(A186,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>334</v>
       </c>
@@ -4789,10 +6310,18 @@
         <v>12</v>
       </c>
       <c r="D187">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A187,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>46</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>392</v>
       </c>
@@ -4803,10 +6332,18 @@
         <v>403</v>
       </c>
       <c r="D188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A188,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>393</v>
       </c>
@@ -4817,10 +6354,18 @@
         <v>403</v>
       </c>
       <c r="D189">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A189,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>47</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>336</v>
       </c>
@@ -4831,10 +6376,18 @@
         <v>420</v>
       </c>
       <c r="D190">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A190,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>113</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>338</v>
       </c>
@@ -4844,11 +6397,19 @@
       <c r="C191">
         <v>1</v>
       </c>
-      <c r="D191" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <f>IFERROR(VLOOKUP(A191,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>340</v>
       </c>
@@ -4859,10 +6420,18 @@
         <v>5089</v>
       </c>
       <c r="D192">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A192,Sheet1!A:B,2,0), )</f>
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>5</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>342</v>
       </c>
@@ -4873,10 +6442,18 @@
         <v>50</v>
       </c>
       <c r="D193">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A193,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>21</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>344</v>
       </c>
@@ -4886,11 +6463,19 @@
       <c r="C194">
         <v>4270</v>
       </c>
-      <c r="D194" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <f>IFERROR(VLOOKUP(A194,Sheet1!A:B,2,0), )</f>
+        <v>5</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>346</v>
       </c>
@@ -4900,11 +6485,19 @@
       <c r="C195">
         <v>18</v>
       </c>
-      <c r="D195" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <f>IFERROR(VLOOKUP(A195,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F213" si="3">D195+E195</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>348</v>
       </c>
@@ -4914,11 +6507,19 @@
       <c r="C196">
         <v>1329</v>
       </c>
-      <c r="D196" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <f>IFERROR(VLOOKUP(A196,Sheet1!A:B,2,0), )</f>
+        <v>26</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>350</v>
       </c>
@@ -4929,10 +6530,18 @@
         <v>9</v>
       </c>
       <c r="D197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A197,Sheet1!A:B,2,0), )</f>
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -4943,10 +6552,18 @@
         <v>403</v>
       </c>
       <c r="D198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A198,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>352</v>
       </c>
@@ -4956,11 +6573,19 @@
       <c r="C199">
         <v>9695</v>
       </c>
-      <c r="D199" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <f>IFERROR(VLOOKUP(A199,Sheet1!A:B,2,0), )</f>
+        <v>384</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>354</v>
       </c>
@@ -4971,10 +6596,18 @@
         <v>728</v>
       </c>
       <c r="D200">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A200,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>356</v>
       </c>
@@ -4984,11 +6617,19 @@
       <c r="C201">
         <v>20</v>
       </c>
-      <c r="D201" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <f>IFERROR(VLOOKUP(A201,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>358</v>
       </c>
@@ -4998,11 +6639,19 @@
       <c r="C202">
         <v>2</v>
       </c>
-      <c r="D202" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <f>IFERROR(VLOOKUP(A202,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>360</v>
       </c>
@@ -5012,11 +6661,19 @@
       <c r="C203">
         <v>878</v>
       </c>
-      <c r="D203" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <f>IFERROR(VLOOKUP(A203,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>362</v>
       </c>
@@ -5026,11 +6683,19 @@
       <c r="C204">
         <v>3</v>
       </c>
-      <c r="D204" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <f>IFERROR(VLOOKUP(A204,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>364</v>
       </c>
@@ -5041,10 +6706,18 @@
         <v>2</v>
       </c>
       <c r="D205">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A205,Sheet1!A:B,2,0), )</f>
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>366</v>
       </c>
@@ -5054,11 +6727,19 @@
       <c r="C206">
         <v>6315</v>
       </c>
-      <c r="D206" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <f>IFERROR(VLOOKUP(A206,Sheet1!A:B,2,0), )</f>
+        <v>3</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>395</v>
       </c>
@@ -5069,10 +6750,18 @@
         <v>403</v>
       </c>
       <c r="D207">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A207,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>24</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>396</v>
       </c>
@@ -5083,10 +6772,18 @@
         <v>403</v>
       </c>
       <c r="D208">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A208,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>30</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>397</v>
       </c>
@@ -5097,10 +6794,18 @@
         <v>403</v>
       </c>
       <c r="D209">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A209,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>37</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>368</v>
       </c>
@@ -5111,10 +6816,18 @@
         <v>2</v>
       </c>
       <c r="D210">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A210,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>10</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>370</v>
       </c>
@@ -5125,10 +6838,18 @@
         <v>672</v>
       </c>
       <c r="D211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A211,Sheet1!A:B,2,0), )</f>
+        <v>16</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>372</v>
       </c>
@@ -5139,10 +6860,18 @@
         <v>21</v>
       </c>
       <c r="D212">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(A212,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>398</v>
       </c>
@@ -5153,7 +6882,15 @@
         <v>403</v>
       </c>
       <c r="D213">
-        <v>87</v>
+        <f>IFERROR(VLOOKUP(A213,Sheet1!A:B,2,0), )</f>
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>22</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5162,4 +6899,945 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8190E9A-0B56-4AAC-AE3A-F536C3782E94}">
+  <dimension ref="A1:B116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>431</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>432</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>433</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>266</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>280</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>292</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>434</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>322</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>332</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>334</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>340</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>342</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>344</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>346</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>348</v>
+      </c>
+      <c r="B109">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>350</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>352</v>
+      </c>
+      <c r="B111">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>356</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>366</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>370</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>